--- a/data/la_penita.xlsx
+++ b/data/la_penita.xlsx
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -951,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
@@ -1131,7 +1131,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -1168,7 +1172,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>3</t>
@@ -1263,7 +1271,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>3</t>
@@ -1308,7 +1320,11 @@
           <t>22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>5</t>
@@ -1359,7 +1375,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1410,7 +1426,11 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>2</t>
@@ -1463,7 +1483,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
@@ -1512,7 +1536,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>2</t>
@@ -1565,7 +1593,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>5</t>
